--- a/Documents/DIYANA/PENGECAIAN/SPL KECAI LULUS/2024100070.xlsx
+++ b/Documents/DIYANA/PENGECAIAN/SPL KECAI LULUS/2024100070.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JOE-PC\Users\Gunasama\Documents\DIYANA\PENGECAIAN\SPL KECAI LULUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.98\Users\Gunasama\Documents\DIYANA\PENGECAIAN\SPL KECAI LULUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD32BC-9171-448C-94BD-C67EC6DA3774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7741445-9BC1-473F-BC52-DC1C5161F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38249C9A-01A6-4AF8-A1A8-1F534CECDBB5}"/>
   </bookViews>
@@ -1708,59 +1708,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1770,134 +1878,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1934,11 +1914,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1971,119 +1954,136 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3224,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318A5001-3373-4BA5-B707-AF234176FF51}">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="82" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -3244,44 +3244,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="230">
+      <c r="D1" s="119">
         <v>2024100070</v>
       </c>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="220" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="12"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -3299,15 +3299,15 @@
       <c r="C4" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="174" t="s">
+      <c r="D4" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="175"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
@@ -3319,15 +3319,15 @@
       <c r="C5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="174" t="s">
+      <c r="D5" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="175"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
@@ -3339,15 +3339,15 @@
       <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -3359,15 +3359,15 @@
       <c r="C7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="219"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="115" t="s">
@@ -3379,15 +3379,15 @@
       <c r="C8" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="246" t="s">
+      <c r="D8" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -3399,15 +3399,15 @@
       <c r="C9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="219"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -3419,19 +3419,19 @@
       <c r="C10" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="242" t="s">
+      <c r="D10" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="243"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="234"/>
-      <c r="B11" s="234"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3441,10 +3441,10 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="240" t="s">
+      <c r="A12" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="240"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3454,38 +3454,38 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="238" t="s">
+      <c r="A13" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="210" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="238" t="s">
+      <c r="A14" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="239"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="71" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="104">
         <v>20.12</v>
       </c>
-      <c r="E14" s="231" t="s">
+      <c r="E14" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="231"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="231"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="104">
         <v>1</v>
       </c>
@@ -3506,43 +3506,43 @@
       <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="215"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="228" t="s">
+      <c r="D16" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="228"/>
-      <c r="F16" s="229" t="s">
+      <c r="E16" s="163"/>
+      <c r="F16" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="229"/>
-      <c r="H16" s="229"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
       <c r="I16" s="70"/>
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:11" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="225" t="s">
+      <c r="B17" s="131"/>
+      <c r="C17" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="225"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="226" t="s">
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="226"/>
-      <c r="H17" s="227" t="s">
+      <c r="G17" s="161"/>
+      <c r="H17" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="227"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="92" t="s">
         <v>71</v>
       </c>
@@ -3560,26 +3560,26 @@
       <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:11" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="212" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
       <c r="J19" s="96"/>
     </row>
     <row r="20" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="221" t="s">
+      <c r="A20" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="222"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="97" t="s">
         <v>83</v>
       </c>
@@ -3600,10 +3600,10 @@
       <c r="J20" s="98"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="221" t="s">
+      <c r="A21" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="222"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="99" t="s">
         <v>85</v>
       </c>
@@ -3616,27 +3616,27 @@
       <c r="F21" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="153" t="s">
+      <c r="G21" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="153"/>
+      <c r="H21" s="143"/>
       <c r="I21" s="12"/>
       <c r="J21" s="100"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="223"/>
+      <c r="A22" s="142"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="174" t="s">
+      <c r="D22" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="174"/>
-      <c r="F22" s="232">
+      <c r="E22" s="138"/>
+      <c r="F22" s="121">
         <v>36.299999999999997</v>
       </c>
-      <c r="G22" s="232"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="69" t="s">
         <v>81</v>
       </c>
@@ -3644,57 +3644,57 @@
       <c r="J22" s="100"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="224"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="233" t="s">
+      <c r="A23" s="158"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
       <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="152" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
       <c r="J24" s="100"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="223"/>
-      <c r="C25" s="152" t="s">
+      <c r="A25" s="142"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="223"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
-      <c r="B26" s="223"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="153" t="s">
+      <c r="D26" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="153"/>
+      <c r="E26" s="143"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
       <c r="H26" s="12" t="s">
@@ -3716,12 +3716,12 @@
       <c r="J27" s="51"/>
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="237"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="237"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="74"/>
       <c r="F28" s="73">
         <v>30</v>
@@ -3744,60 +3744,60 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:11" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="191" t="s">
+      <c r="A30" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="193"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="185"/>
       <c r="F30" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="186" t="s">
+      <c r="G30" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="179"/>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="172" t="s">
+      <c r="B31" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="165" t="s">
+      <c r="G31" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="197"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="159"/>
     </row>
     <row r="32" spans="1:11" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="172" t="s">
+      <c r="B32" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="172"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="84"/>
-      <c r="G32" s="203" t="s">
+      <c r="G32" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="203"/>
+      <c r="H32" s="196"/>
       <c r="I32" s="73"/>
       <c r="J32" s="72" t="s">
         <v>71</v>
@@ -3806,83 +3806,83 @@
     </row>
     <row r="33" spans="1:11" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="177"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
       <c r="F33" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="176" t="s">
+      <c r="G33" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="198"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="190"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="205"/>
       <c r="F34" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="170" t="s">
+      <c r="G34" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="199"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="192"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="154"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="205"/>
       <c r="F35" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="158" t="s">
+      <c r="G35" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="159"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="212"/>
+      <c r="K35" s="213"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="188"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="190"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="182"/>
       <c r="F36" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="184" t="s">
+      <c r="G36" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="200"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="193"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="188"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="190"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="182"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="171" t="s">
+      <c r="G37" s="222" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="171"/>
+      <c r="H37" s="222"/>
       <c r="I37" s="83"/>
       <c r="J37" s="12" t="s">
         <v>71</v>
@@ -3890,94 +3890,94 @@
       <c r="K37" s="78"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="194"/>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="196"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="188"/>
       <c r="F38" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="168" t="s">
+      <c r="G38" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="169"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="220"/>
+      <c r="K38" s="221"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="167" t="s">
+      <c r="B39" s="171"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="162"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="215"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181" t="s">
+      <c r="A40" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="183"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="172"/>
       <c r="F40" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="160" t="s">
+      <c r="G40" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
-      <c r="K40" s="161"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="214"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="172" t="s">
+      <c r="B41" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="173"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="184" t="s">
+      <c r="G41" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="185"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="177"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="139"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="170" t="s">
+      <c r="G42" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="170"/>
+      <c r="H42" s="191"/>
       <c r="I42" s="82"/>
       <c r="J42" s="14" t="s">
         <v>75</v>
@@ -3985,96 +3985,96 @@
       <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
       <c r="F43" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="184" t="s">
+      <c r="G43" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="185"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="177"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="180"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
       <c r="F44" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="163" t="s">
+      <c r="G44" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="164"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="217"/>
     </row>
     <row r="45" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="178" t="s">
+      <c r="A45" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="180"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
       <c r="F45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="158" t="s">
+      <c r="G45" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="162"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="215"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="181" t="s">
+      <c r="A46" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="182"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="183"/>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
       <c r="F46" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="165" t="s">
+      <c r="G46" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="165"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="165"/>
-      <c r="K46" s="166"/>
+      <c r="H46" s="189"/>
+      <c r="I46" s="189"/>
+      <c r="J46" s="189"/>
+      <c r="K46" s="218"/>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="172" t="s">
+      <c r="B47" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="172"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="173"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="153" t="s">
+      <c r="G47" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="153"/>
+      <c r="H47" s="143"/>
       <c r="I47" s="83"/>
       <c r="J47" s="12" t="s">
         <v>71</v>
@@ -4085,50 +4085,50 @@
       <c r="A48" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="151"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="204"/>
       <c r="F48" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="201" t="s">
+      <c r="G48" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="201"/>
-      <c r="I48" s="201"/>
-      <c r="J48" s="201"/>
-      <c r="K48" s="202"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="195"/>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="204" t="s">
+      <c r="A49" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="205"/>
-      <c r="C49" s="205"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="205"/>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
-      <c r="H49" s="205"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="205"/>
-      <c r="K49" s="206"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="198"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="198"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="199"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="207"/>
-      <c r="B50" s="208"/>
-      <c r="C50" s="208"/>
-      <c r="D50" s="208"/>
-      <c r="E50" s="208"/>
-      <c r="F50" s="208"/>
-      <c r="G50" s="208"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="208"/>
-      <c r="J50" s="208"/>
-      <c r="K50" s="209"/>
+      <c r="A50" s="200"/>
+      <c r="B50" s="201"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="202"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
@@ -4144,38 +4144,38 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="127"/>
+      <c r="B52" s="207"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="208"/>
     </row>
     <row r="53" spans="1:20" s="43" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="155" t="s">
+      <c r="B53" s="207"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="208"/>
+      <c r="F53" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="156"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="128" t="s">
+      <c r="G53" s="210"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="129"/>
-      <c r="K53" s="130"/>
+      <c r="J53" s="230"/>
+      <c r="K53" s="231"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -4187,23 +4187,23 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="137" t="s">
+      <c r="A54" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="134">
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="235">
         <v>6</v>
       </c>
-      <c r="G54" s="135"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="131">
+      <c r="G54" s="236"/>
+      <c r="H54" s="237"/>
+      <c r="I54" s="232">
         <v>4</v>
       </c>
-      <c r="J54" s="132"/>
-      <c r="K54" s="133"/>
+      <c r="J54" s="233"/>
+      <c r="K54" s="234"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -4215,23 +4215,23 @@
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="137" t="s">
+      <c r="A55" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="134" t="s">
+      <c r="B55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="175"/>
+      <c r="F55" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="135"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="131" t="s">
+      <c r="G55" s="236"/>
+      <c r="H55" s="237"/>
+      <c r="I55" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="J55" s="132"/>
-      <c r="K55" s="133"/>
+      <c r="J55" s="233"/>
+      <c r="K55" s="234"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
@@ -4243,23 +4243,23 @@
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="137" t="s">
+      <c r="A56" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="134" t="s">
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="175"/>
+      <c r="F56" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="135"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="131" t="s">
+      <c r="G56" s="236"/>
+      <c r="H56" s="237"/>
+      <c r="I56" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="J56" s="132"/>
-      <c r="K56" s="133"/>
+      <c r="J56" s="233"/>
+      <c r="K56" s="234"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
@@ -4271,21 +4271,21 @@
       <c r="T56"/>
     </row>
     <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="137" t="s">
+      <c r="A57" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="134" t="s">
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="135"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="146"/>
+      <c r="G57" s="236"/>
+      <c r="H57" s="237"/>
+      <c r="I57" s="242"/>
+      <c r="J57" s="243"/>
+      <c r="K57" s="244"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
@@ -4304,32 +4304,32 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="149" t="s">
+      <c r="A59" s="247" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="149"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="149"/>
+      <c r="B59" s="247"/>
+      <c r="C59" s="247"/>
+      <c r="D59" s="247"/>
+      <c r="E59" s="247"/>
+      <c r="F59" s="247"/>
+      <c r="G59" s="247"/>
+      <c r="H59" s="247"/>
+      <c r="I59" s="247"/>
+      <c r="J59" s="247"/>
+      <c r="K59" s="247"/>
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="149"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="149"/>
+      <c r="A60" s="247"/>
+      <c r="B60" s="247"/>
+      <c r="C60" s="247"/>
+      <c r="D60" s="247"/>
+      <c r="E60" s="247"/>
+      <c r="F60" s="247"/>
+      <c r="G60" s="247"/>
+      <c r="H60" s="247"/>
+      <c r="I60" s="247"/>
+      <c r="J60" s="247"/>
+      <c r="K60" s="247"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -4349,18 +4349,18 @@
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
       <c r="H62" s="53"/>
-      <c r="I62" s="142" t="s">
+      <c r="I62" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="J62" s="142"/>
-      <c r="K62" s="143"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="241"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
+      <c r="D63" s="246"/>
+      <c r="E63" s="246"/>
       <c r="H63" s="50"/>
       <c r="K63" s="17"/>
     </row>
@@ -4379,17 +4379,17 @@
         <v>110</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="147" t="s">
+      <c r="D65" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
+      <c r="E65" s="245"/>
+      <c r="F65" s="245"/>
       <c r="H65" s="50"/>
-      <c r="I65" s="140">
+      <c r="I65" s="238">
         <v>45595</v>
       </c>
-      <c r="J65" s="140"/>
-      <c r="K65" s="141"/>
+      <c r="J65" s="238"/>
+      <c r="K65" s="239"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="81"/>
@@ -4419,11 +4419,11 @@
       <c r="F67" s="66"/>
       <c r="G67" s="66"/>
       <c r="H67" s="67"/>
-      <c r="I67" s="122" t="s">
+      <c r="I67" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="123"/>
-      <c r="K67" s="124"/>
+      <c r="J67" s="227"/>
+      <c r="K67" s="228"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
@@ -4482,11 +4482,11 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="H72" s="50"/>
-      <c r="I72" s="119" t="s">
+      <c r="I72" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="J72" s="120"/>
-      <c r="K72" s="121"/>
+      <c r="J72" s="224"/>
+      <c r="K72" s="225"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="54"/>
@@ -4652,48 +4652,44 @@
     <row r="98" ht="135" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A59:K60"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A46:E46"/>
@@ -4718,44 +4714,48 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="A49:K50"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A59:K60"/>
-    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <pageMargins left="0.64950980392156865" right="0.7" top="0.78730620155038755" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/DIYANA/PENGECAIAN/SPL KECAI LULUS/2024100070.xlsx
+++ b/Documents/DIYANA/PENGECAIAN/SPL KECAI LULUS/2024100070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.98\Users\Gunasama\Documents\DIYANA\PENGECAIAN\SPL KECAI LULUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7741445-9BC1-473F-BC52-DC1C5161F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8445A9D4-28A9-42D2-A0E1-7BC97DB6E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38249C9A-01A6-4AF8-A1A8-1F534CECDBB5}"/>
   </bookViews>
@@ -1458,9 +1458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1708,62 +1705,166 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1771,81 +1872,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1869,15 +1895,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1914,14 +1931,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1954,136 +1968,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3225,7 +3225,7 @@
   <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,73 +3244,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="119">
+      <c r="B1" s="244"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="229">
         <v>2024100070</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="157" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="31"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="247"/>
     </row>
     <row r="4" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="107" t="s">
         <v>104</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="139"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="174"/>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3319,18 +3319,18 @@
       <c r="C5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3339,18 +3339,18 @@
       <c r="C6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -3359,55 +3359,55 @@
       <c r="C7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="218"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="114" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="246"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="218"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -3416,22 +3416,22 @@
       <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="241" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
     </row>
     <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="233"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3441,10 +3441,10 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="132"/>
+      <c r="B12" s="239"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3454,289 +3454,289 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="237" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="149" t="s">
+      <c r="B13" s="240"/>
+      <c r="C13" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="238"/>
+      <c r="C14" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="103">
         <v>20.12</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="104">
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="103">
         <v>1</v>
       </c>
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="104" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="90"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="154"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="164" t="s">
+      <c r="E16" s="227"/>
+      <c r="F16" s="228" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:11" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="160" t="s">
+      <c r="B17" s="238"/>
+      <c r="C17" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="161" t="s">
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="225" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="161"/>
-      <c r="H17" s="162" t="s">
+      <c r="G17" s="225"/>
+      <c r="H17" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="162"/>
-      <c r="J17" s="92" t="s">
+      <c r="I17" s="226"/>
+      <c r="J17" s="91" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="13" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" spans="1:11" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="151" t="s">
+      <c r="B19" s="238"/>
+      <c r="C19" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="96"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="221"/>
+      <c r="C20" s="96" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="68" t="s">
         <v>96</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="98"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="99" t="s">
+      <c r="B21" s="221"/>
+      <c r="C21" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="143" t="s">
+      <c r="G21" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="143"/>
+      <c r="H21" s="152"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="100"/>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="99" t="s">
+      <c r="A22" s="151"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="121">
+      <c r="E22" s="173"/>
+      <c r="F22" s="231">
         <v>36.299999999999997</v>
       </c>
-      <c r="G22" s="121"/>
-      <c r="H22" s="69" t="s">
+      <c r="G22" s="231"/>
+      <c r="H22" s="68" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="12"/>
-      <c r="J22" s="100"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="122" t="s">
+      <c r="A23" s="223"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="50"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="142"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="142" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="100"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="142"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="142" t="s">
+      <c r="A25" s="151"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="222"/>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="142"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="102" t="s">
+      <c r="A26" s="151"/>
+      <c r="B26" s="222"/>
+      <c r="C26" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="12" t="s">
         <v>81</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="100"/>
+      <c r="J26" s="99"/>
     </row>
     <row r="27" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="51"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="236" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="73">
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="72">
         <v>30</v>
       </c>
-      <c r="G28" s="75"/>
+      <c r="G28" s="74"/>
       <c r="H28" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -3744,438 +3744,438 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:11" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="76" t="s">
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="178" t="s">
+      <c r="G30" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="179"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="186"/>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="85" t="s">
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="189" t="s">
+      <c r="G31" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="159"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:11" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="196" t="s">
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="196"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="72" t="s">
+      <c r="H32" s="202"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="79"/>
+      <c r="K32" s="78"/>
     </row>
     <row r="33" spans="1:11" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="116" t="s">
+      <c r="A33" s="79"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="165" t="s">
+      <c r="G33" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="165"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="190"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="197"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="142"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="110" t="s">
+      <c r="A34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="191" t="s">
+      <c r="G34" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="192"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="198"/>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="142"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="205"/>
+      <c r="A35" s="151"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="153"/>
       <c r="F35" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="212" t="s">
+      <c r="G35" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="213"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="158"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="180"/>
-      <c r="B36" s="181"/>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="87" t="s">
+      <c r="A36" s="187"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="176" t="s">
+      <c r="G36" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="193"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="199"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="180"/>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="182"/>
+      <c r="A37" s="187"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="189"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="222" t="s">
+      <c r="G37" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="222"/>
-      <c r="I37" s="83"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="82"/>
       <c r="J37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="78"/>
+      <c r="K37" s="77"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="86" t="s">
+      <c r="A38" s="193"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="220" t="s">
+      <c r="G38" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
-      <c r="K38" s="221"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="168"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="170" t="s">
+      <c r="A39" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="219" t="s">
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="215"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="161"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="172"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="182"/>
       <c r="F40" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="123" t="s">
+      <c r="G40" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="214"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="160"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="112" t="s">
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="176" t="s">
+      <c r="G41" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="177"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="184"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="139"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="174"/>
       <c r="F42" s="28"/>
-      <c r="G42" s="191" t="s">
+      <c r="G42" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="191"/>
-      <c r="I42" s="82"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="68"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="112" t="s">
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="176" t="s">
+      <c r="G43" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="176"/>
-      <c r="K43" s="177"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="184"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="87" t="s">
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="216" t="s">
+      <c r="G44" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="216"/>
-      <c r="I44" s="216"/>
-      <c r="J44" s="216"/>
-      <c r="K44" s="217"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
     </row>
     <row r="45" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="169"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
       <c r="F45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="212" t="s">
+      <c r="G45" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="215"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="161"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="113" t="s">
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="189" t="s">
+      <c r="G46" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="218"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="165"/>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="147" t="s">
+      <c r="B47" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="148"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="172"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="143" t="s">
+      <c r="G47" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="143"/>
-      <c r="I47" s="83"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="106"/>
+      <c r="K47" s="105"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="88" t="s">
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="194" t="s">
+      <c r="G48" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="195"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="201"/>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="197" t="s">
+      <c r="A49" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="H49" s="198"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="198"/>
-      <c r="K49" s="199"/>
+      <c r="B49" s="204"/>
+      <c r="C49" s="204"/>
+      <c r="D49" s="204"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="204"/>
+      <c r="K49" s="205"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="200"/>
-      <c r="B50" s="201"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="201"/>
-      <c r="K50" s="202"/>
+      <c r="A50" s="206"/>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
+      <c r="K50" s="208"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="206" t="s">
+      <c r="A52" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="207"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
-      <c r="K52" s="208"/>
-    </row>
-    <row r="53" spans="1:20" s="43" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="206" t="s">
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
+    </row>
+    <row r="53" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="207"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="208"/>
-      <c r="F53" s="209" t="s">
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="210"/>
-      <c r="H53" s="211"/>
-      <c r="I53" s="229" t="s">
+      <c r="G53" s="155"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="230"/>
-      <c r="K53" s="231"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="129"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -4187,23 +4187,23 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="173" t="s">
+      <c r="A54" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="235">
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="138"/>
+      <c r="F54" s="133">
         <v>6</v>
       </c>
-      <c r="G54" s="236"/>
-      <c r="H54" s="237"/>
-      <c r="I54" s="232">
+      <c r="G54" s="134"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="130">
         <v>4</v>
       </c>
-      <c r="J54" s="233"/>
-      <c r="K54" s="234"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="132"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -4215,23 +4215,23 @@
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="173" t="s">
+      <c r="A55" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="174"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="235" t="s">
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="236"/>
-      <c r="H55" s="237"/>
-      <c r="I55" s="232" t="s">
+      <c r="G55" s="134"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="J55" s="233"/>
-      <c r="K55" s="234"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="132"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
@@ -4243,23 +4243,23 @@
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="173" t="s">
+      <c r="A56" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="174"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
-      <c r="E56" s="175"/>
-      <c r="F56" s="235" t="s">
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="236"/>
-      <c r="H56" s="237"/>
-      <c r="I56" s="232" t="s">
+      <c r="G56" s="134"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="J56" s="233"/>
-      <c r="K56" s="234"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="132"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
@@ -4271,21 +4271,21 @@
       <c r="T56"/>
     </row>
     <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="173" t="s">
+      <c r="A57" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="174"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="235" t="s">
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="138"/>
+      <c r="F57" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="236"/>
-      <c r="H57" s="237"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="243"/>
-      <c r="K57" s="244"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="145"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
@@ -4304,32 +4304,32 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="247" t="s">
+      <c r="A59" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="247"/>
-      <c r="C59" s="247"/>
-      <c r="D59" s="247"/>
-      <c r="E59" s="247"/>
-      <c r="F59" s="247"/>
-      <c r="G59" s="247"/>
-      <c r="H59" s="247"/>
-      <c r="I59" s="247"/>
-      <c r="J59" s="247"/>
-      <c r="K59" s="247"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="148"/>
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="247"/>
-      <c r="B60" s="247"/>
-      <c r="C60" s="247"/>
-      <c r="D60" s="247"/>
-      <c r="E60" s="247"/>
-      <c r="F60" s="247"/>
-      <c r="G60" s="247"/>
-      <c r="H60" s="247"/>
-      <c r="I60" s="247"/>
-      <c r="J60" s="247"/>
-      <c r="K60" s="247"/>
+      <c r="A60" s="148"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -4339,203 +4339,203 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="240" t="s">
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="J62" s="240"/>
-      <c r="K62" s="241"/>
+      <c r="J62" s="141"/>
+      <c r="K62" s="142"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
-      <c r="H63" s="50"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="H63" s="49"/>
       <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="H64" s="50"/>
+      <c r="H64" s="49"/>
       <c r="K64" s="17"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="107" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="106" t="s">
         <v>110</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="245" t="s">
+      <c r="D65" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="E65" s="245"/>
-      <c r="F65" s="245"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="238">
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="139">
         <v>45595</v>
       </c>
-      <c r="J65" s="238"/>
-      <c r="K65" s="239"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="140"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="51"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="50"/>
       <c r="K66" s="17"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="64" t="s">
+      <c r="D67" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="226" t="s">
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="227"/>
-      <c r="K67" s="228"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="123"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="50"/>
-      <c r="K68" s="50"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="49"/>
+      <c r="K68" s="49"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="46" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="50"/>
-      <c r="K69" s="50"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="49"/>
+      <c r="K69" s="49"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="H70" s="50"/>
-      <c r="K70" s="50"/>
+      <c r="H70" s="49"/>
+      <c r="K70" s="49"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="H71" s="50"/>
-      <c r="K71" s="50"/>
+      <c r="H71" s="49"/>
+      <c r="K71" s="49"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="223" t="s">
+      <c r="H72" s="49"/>
+      <c r="I72" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="J72" s="224"/>
-      <c r="K72" s="225"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="120"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="H73" s="50"/>
-      <c r="K73" s="50"/>
+      <c r="H73" s="49"/>
+      <c r="K73" s="49"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="H74" s="50"/>
-      <c r="K74" s="50"/>
+      <c r="H74" s="49"/>
+      <c r="K74" s="49"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="7"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="H75" s="50"/>
-      <c r="K75" s="50"/>
+      <c r="H75" s="49"/>
+      <c r="K75" s="49"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="7"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="H76" s="50"/>
-      <c r="K76" s="50"/>
+      <c r="H76" s="49"/>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="51"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="50"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
@@ -4560,14 +4560,14 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
-      <c r="B81" s="38"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -4615,7 +4615,7 @@
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="2"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
-      <c r="B90" s="40"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="41"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4652,44 +4652,48 @@
     <row r="98" ht="135" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A59:K60"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A46:E46"/>
@@ -4714,48 +4718,44 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="A49:K50"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A59:K60"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <pageMargins left="0.64950980392156865" right="0.7" top="0.78730620155038755" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
